--- a/Phân tích/Yêu cầu bảo mật.xlsx
+++ b/Phân tích/Yêu cầu bảo mật.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAFDD45-AA0A-4963-AD23-B215EE17AF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD6EC4-30B4-4D76-AA71-A29A6D5838B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F47D728-A2E8-4CA2-B970-5685F5DBBB20}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{6F47D728-A2E8-4CA2-B970-5685F5DBBB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Chấm công</t>
   </si>
   <si>
     <t>- Tính lương</t>
@@ -566,7 +563,7 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +579,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="H1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -602,25 +599,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -635,20 +632,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -661,20 +658,20 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7"/>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -687,20 +684,20 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7"/>
     </row>
@@ -713,7 +710,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -726,7 +723,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -739,9 +736,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -752,10 +751,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -767,10 +766,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,10 +781,10 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -793,14 +792,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -808,15 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -827,7 +824,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -840,7 +837,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -853,9 +850,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -866,10 +865,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,10 +880,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,11 +895,9 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -911,9 +908,11 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -924,10 +923,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,10 +938,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,10 +953,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,10 +968,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,10 +983,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +998,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,10 +1013,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,10 +1028,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,10 +1043,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,10 +1058,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,10 +1073,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,10 +1088,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,10 +1103,10 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,63 +1118,50 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>

--- a/Phân tích/Yêu cầu bảo mật.xlsx
+++ b/Phân tích/Yêu cầu bảo mật.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD6EC4-30B4-4D76-AA71-A29A6D5838B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12373DA3-E784-4191-8F70-90AD8842F813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{6F47D728-A2E8-4CA2-B970-5685F5DBBB20}"/>
+    <workbookView xWindow="6456" yWindow="2532" windowWidth="17280" windowHeight="8964" xr2:uid="{6F47D728-A2E8-4CA2-B970-5685F5DBBB20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -36,108 +36,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>- Thêm nhân viên</t>
-  </si>
-  <si>
-    <t>- Xem thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Tính lương</t>
-  </si>
-  <si>
-    <t>- Danh mục nhân viên</t>
-  </si>
-  <si>
-    <t>- Danh mục  đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  khách hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  kho</t>
-  </si>
-  <si>
-    <t>- Danh mục  hóa đơn</t>
-  </si>
-  <si>
-    <t>- Báo cáo doanh thu</t>
-  </si>
-  <si>
-    <t>- Báo cáo khách hàng</t>
-  </si>
-  <si>
-    <t>- Báo cáo sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm khách hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm nhân viên</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm hóa đơn</t>
-  </si>
-  <si>
-    <t>- Thêm hàng hóa</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hàng hóa</t>
-  </si>
-  <si>
-    <t>- Cập nhật chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>- Tạo đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xuất hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xem thông tin đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tạo hóa đơn</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Tạo hồ sơ khách hàng</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>- Đăng nhập</t>
-  </si>
-  <si>
-    <t>- Thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>- Đặt lịch làm việc</t>
-  </si>
-  <si>
-    <t>- Phân quyền</t>
-  </si>
-  <si>
-    <t>- Check in/out</t>
-  </si>
-  <si>
     <t>Quản trị hệ thống</t>
   </si>
   <si>
@@ -175,6 +73,36 @@
   </si>
   <si>
     <t xml:space="preserve">Trách nhiệm yêu cầu bảo mật </t>
+  </si>
+  <si>
+    <t>Quản lí nhân viên</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>Quản lí danh mục</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Quản lí kho</t>
+  </si>
+  <si>
+    <t>Quản lí đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hóa đơn</t>
+  </si>
+  <si>
+    <t>Quản lí khách hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hệ thống</t>
   </si>
 </sst>
 </file>
@@ -563,35 +491,35 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="36.88671875" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="H1" s="9" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,797 +527,616 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7"/>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>20</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>34</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
       <c r="D78" s="1"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
